--- a/public/imports/buffertank.XLSX
+++ b/public/imports/buffertank.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="274">
   <si>
     <t>в работе</t>
   </si>
@@ -385,51 +385,18 @@
     <t>Б2-45</t>
   </si>
   <si>
-    <t>06.2019</t>
-  </si>
-  <si>
-    <t>10.2019</t>
-  </si>
-  <si>
-    <t>11.2020</t>
-  </si>
-  <si>
-    <t>10.2017</t>
-  </si>
-  <si>
-    <t>10.2018</t>
-  </si>
-  <si>
-    <t>10.2020</t>
-  </si>
-  <si>
-    <t>11.2017</t>
-  </si>
-  <si>
-    <t>06.2013</t>
-  </si>
-  <si>
     <t>Б1-6</t>
   </si>
   <si>
     <t>Б2-6</t>
   </si>
   <si>
-    <t>12.2019</t>
-  </si>
-  <si>
-    <t>12.2020</t>
-  </si>
-  <si>
     <t>Б1-46</t>
   </si>
   <si>
     <t>Б2-46</t>
   </si>
   <si>
-    <t>09.2019</t>
-  </si>
-  <si>
     <t>Б1-47</t>
   </si>
   <si>
@@ -442,9 +409,6 @@
     <t>Б2-48</t>
   </si>
   <si>
-    <t>09.2015</t>
-  </si>
-  <si>
     <t>Б1-49</t>
   </si>
   <si>
@@ -463,21 +427,12 @@
     <t>Б2-52</t>
   </si>
   <si>
-    <t>02.2016</t>
-  </si>
-  <si>
     <t>Б1-9</t>
   </si>
   <si>
     <t>Б2-9</t>
   </si>
   <si>
-    <t>08.2016</t>
-  </si>
-  <si>
-    <t>02.2014</t>
-  </si>
-  <si>
     <t>Б1-31</t>
   </si>
   <si>
@@ -496,12 +451,6 @@
     <t>НГСВ-41</t>
   </si>
   <si>
-    <t>12.2013</t>
-  </si>
-  <si>
-    <t>05.2015</t>
-  </si>
-  <si>
     <t>Б1-38</t>
   </si>
   <si>
@@ -514,27 +463,18 @@
     <t>Б2-40</t>
   </si>
   <si>
-    <t>05.2019</t>
-  </si>
-  <si>
     <t>Б1-58</t>
   </si>
   <si>
     <t>Б2-58</t>
   </si>
   <si>
-    <t>08.2018</t>
-  </si>
-  <si>
     <t>Б1-109</t>
   </si>
   <si>
     <t>НГСВ-109</t>
   </si>
   <si>
-    <t>11.2015</t>
-  </si>
-  <si>
     <t>Емкость буферная</t>
   </si>
   <si>
@@ -836,9 +776,6 @@
   </si>
   <si>
     <t>01.01.1981</t>
-  </si>
-  <si>
-    <t>01.</t>
   </si>
   <si>
     <t>01.10.2017</t>
@@ -1984,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:O330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +1960,7 @@
         <v>80</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G1" s="48" t="s">
         <v>0</v>
@@ -2052,7 +1989,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>1</v>
@@ -2081,7 +2018,7 @@
         <v>80</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G3" s="50" t="s">
         <v>0</v>
@@ -2110,7 +2047,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>1</v>
@@ -2139,7 +2076,7 @@
         <v>80</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G5" s="50" t="s">
         <v>0</v>
@@ -2168,7 +2105,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>1</v>
@@ -2197,7 +2134,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>1</v>
@@ -2226,7 +2163,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G8" s="50" t="s">
         <v>1</v>
@@ -2255,7 +2192,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G9" s="50" t="s">
         <v>0</v>
@@ -2286,7 +2223,7 @@
         <v>80</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>97</v>
@@ -2315,7 +2252,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G11" s="50" t="s">
         <v>0</v>
@@ -2346,7 +2283,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G12" s="52" t="s">
         <v>1</v>
@@ -2375,7 +2312,7 @@
         <v>80</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>30</v>
@@ -2392,7 +2329,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>101</v>
@@ -2404,16 +2341,16 @@
         <v>80</v>
       </c>
       <c r="F14" s="116" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="G14" s="50" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="69" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="I14" s="117" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="32" t="s">
@@ -2443,10 +2380,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="69" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="32" t="s">
@@ -2458,7 +2395,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C16" s="50" t="s">
         <v>104</v>
@@ -2476,10 +2413,10 @@
         <v>30</v>
       </c>
       <c r="H16" s="69" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="32" t="s">
@@ -2509,10 +2446,10 @@
         <v>30</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="I17" s="69" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="32" t="s">
@@ -2524,7 +2461,7 @@
         <v>63</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>103</v>
@@ -2542,10 +2479,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="32" t="s">
@@ -2575,10 +2512,10 @@
         <v>30</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="I19" s="69" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="32" t="s">
@@ -2608,10 +2545,10 @@
         <v>30</v>
       </c>
       <c r="H20" s="69" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="I20" s="69" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="32" t="s">
@@ -2641,10 +2578,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="69" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I21" s="69" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="32" t="s">
@@ -2674,10 +2611,10 @@
         <v>30</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I22" s="69" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="32" t="s">
@@ -2689,7 +2626,7 @@
         <v>66</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>110</v>
@@ -2707,7 +2644,7 @@
         <v>30</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="I23" s="69"/>
       <c r="J23" s="31"/>
@@ -2738,10 +2675,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="I24" s="69" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32" t="s">
@@ -2850,7 +2787,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>79</v>
@@ -2926,7 +2863,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="116" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="G30" s="50" t="s">
         <v>30</v>
@@ -2990,7 +2927,7 @@
         <v>80</v>
       </c>
       <c r="F32" s="116" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>30</v>
@@ -3009,13 +2946,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="112" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B33" s="58" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D33" s="48" t="s">
         <v>3</v>
@@ -3024,16 +2961,16 @@
         <v>100</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G33" s="48" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="29" t="s">
@@ -3045,7 +2982,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B34" s="59" t="s">
         <v>75</v>
@@ -3060,16 +2997,16 @@
         <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G34" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I34" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="6" t="s">
@@ -3096,16 +3033,16 @@
         <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G35" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H35" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I35" s="62" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="6" t="s">
@@ -3132,16 +3069,16 @@
         <v>80</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G36" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I36" s="62" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="6" t="s">
@@ -3153,13 +3090,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="111" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B37" s="59" t="s">
         <v>112</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D37" s="59" t="s">
         <v>3</v>
@@ -3168,16 +3105,16 @@
         <v>100</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G37" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H37" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I37" s="62" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="6" t="s">
@@ -3189,7 +3126,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="113" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B38" s="59" t="s">
         <v>75</v>
@@ -3204,16 +3141,16 @@
         <v>80</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G38" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I38" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="6" t="s">
@@ -3240,16 +3177,16 @@
         <v>80</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G39" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H39" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I39" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="6" t="s">
@@ -3276,16 +3213,16 @@
         <v>80</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G40" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="6" t="s">
@@ -3312,16 +3249,16 @@
         <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G41" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H41" s="62" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="I41" s="62" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="6" t="s">
@@ -3348,16 +3285,16 @@
         <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G42" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="62" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I42" s="62" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="6" t="s">
@@ -3381,16 +3318,16 @@
         <v>80</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G43" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H43" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I43" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="6" t="s">
@@ -3414,16 +3351,16 @@
         <v>80</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G44" s="60" t="s">
         <v>30</v>
       </c>
       <c r="H44" s="63" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="8" t="s">
@@ -3438,7 +3375,7 @@
         <v>75</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D45" s="64" t="s">
         <v>3</v>
@@ -3447,16 +3384,16 @@
         <v>80</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G45" s="64" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="73" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I45" s="73" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="9" t="s">
@@ -3471,7 +3408,7 @@
         <v>75</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D46" s="59" t="s">
         <v>3</v>
@@ -3480,16 +3417,16 @@
         <v>80</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G46" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H46" s="62" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I46" s="62" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="6" t="s">
@@ -3504,7 +3441,7 @@
         <v>75</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>3</v>
@@ -3513,16 +3450,16 @@
         <v>80</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G47" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H47" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I47" s="62" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="6" t="s">
@@ -3537,7 +3474,7 @@
         <v>75</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>3</v>
@@ -3546,16 +3483,16 @@
         <v>80</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G48" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H48" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I48" s="62" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="6" t="s">
@@ -3570,7 +3507,7 @@
         <v>75</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D49" s="59" t="s">
         <v>3</v>
@@ -3579,16 +3516,16 @@
         <v>50</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49" s="62" t="s">
         <v>254</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="I49" s="62" t="s">
-        <v>275</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="6" t="s">
@@ -3603,7 +3540,7 @@
         <v>75</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D50" s="59" t="s">
         <v>3</v>
@@ -3612,16 +3549,16 @@
         <v>80</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G50" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="I50" s="62" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="6" t="s">
@@ -3636,7 +3573,7 @@
         <v>75</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D51" s="59" t="s">
         <v>3</v>
@@ -3645,16 +3582,16 @@
         <v>80</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G51" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I51" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="6" t="s">
@@ -3669,7 +3606,7 @@
         <v>75</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D52" s="59" t="s">
         <v>3</v>
@@ -3678,16 +3615,16 @@
         <v>80</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G52" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I52" s="62" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="6" t="s">
@@ -3702,7 +3639,7 @@
         <v>75</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D53" s="59" t="s">
         <v>3</v>
@@ -3711,16 +3648,16 @@
         <v>50</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="G53" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="62" t="s">
-        <v>276</v>
-      </c>
       <c r="I53" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="6" t="s">
@@ -3735,7 +3672,7 @@
         <v>75</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D54" s="59" t="s">
         <v>3</v>
@@ -3744,16 +3681,16 @@
         <v>50</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="G54" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I54" s="62" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="6" t="s">
@@ -3768,7 +3705,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D55" s="59" t="s">
         <v>3</v>
@@ -3777,16 +3714,16 @@
         <v>80</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G55" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I55" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="6" t="s">
@@ -3801,7 +3738,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D56" s="59" t="s">
         <v>3</v>
@@ -3810,16 +3747,16 @@
         <v>50</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G56" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I56" s="62" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="6" t="s">
@@ -3834,7 +3771,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D57" s="59" t="s">
         <v>3</v>
@@ -3843,16 +3780,16 @@
         <v>50</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="G57" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H57" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I57" s="62" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="6" t="s">
@@ -3867,7 +3804,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D58" s="65" t="s">
         <v>3</v>
@@ -3876,16 +3813,16 @@
         <v>50</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="G58" s="65" t="s">
         <v>30</v>
       </c>
       <c r="H58" s="74" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I58" s="74" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J58" s="17"/>
       <c r="K58" s="16" t="s">
@@ -3900,7 +3837,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D59" s="58" t="s">
         <v>3</v>
@@ -3909,16 +3846,16 @@
         <v>80</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G59" s="58" t="s">
         <v>30</v>
       </c>
       <c r="H59" s="75" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I59" s="75" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="15" t="s">
@@ -3933,7 +3870,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D60" s="59" t="s">
         <v>3</v>
@@ -3942,16 +3879,16 @@
         <v>80</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G60" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H60" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I60" s="62" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="6" t="s">
@@ -3966,7 +3903,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D61" s="59" t="s">
         <v>3</v>
@@ -3975,16 +3912,16 @@
         <v>80</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G61" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H61" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I61" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="6" t="s">
@@ -3999,7 +3936,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D62" s="59" t="s">
         <v>3</v>
@@ -4008,16 +3945,16 @@
         <v>80</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G62" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H62" s="62" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="I62" s="62" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="6" t="s">
@@ -4026,13 +3963,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="111" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B63" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D63" s="59" t="s">
         <v>3</v>
@@ -4041,31 +3978,31 @@
         <v>80</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G63" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H63" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I63" s="62" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="113" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B64" s="59" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D64" s="59" t="s">
         <v>3</v>
@@ -4074,31 +4011,31 @@
         <v>100</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G64" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H64" s="62" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I64" s="62" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="111" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B65" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D65" s="59" t="s">
         <v>3</v>
@@ -4107,41 +4044,31 @@
         <v>50</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="G65" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H65" s="62" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I65" s="62" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N65" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="O65" s="4" t="str">
-        <f>CONCATENATE(M65,N65)</f>
-        <v>01.10.2017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="113" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B66" s="59" t="s">
         <v>112</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D66" s="59" t="s">
         <v>3</v>
@@ -4150,33 +4077,23 @@
         <v>100</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G66" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I66" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M66" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N66" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="O66" s="4" t="str">
-        <f t="shared" ref="O66:O129" si="0">CONCATENATE(M66,N66)</f>
-        <v>01.06.2019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="102" t="s">
         <v>18</v>
       </c>
@@ -4184,7 +4101,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D67" s="59" t="s">
         <v>3</v>
@@ -4193,33 +4110,23 @@
         <v>80</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G67" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H67" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I67" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M67" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N67" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="O67" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.11.2017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="101" t="s">
         <v>18</v>
       </c>
@@ -4227,7 +4134,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="59" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D68" s="59" t="s">
         <v>3</v>
@@ -4236,33 +4143,23 @@
         <v>80</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G68" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H68" s="62" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="I68" s="62" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N68" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="O68" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.11.2017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="102" t="s">
         <v>19</v>
       </c>
@@ -4270,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D69" s="59" t="s">
         <v>3</v>
@@ -4279,33 +4176,23 @@
         <v>50</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G69" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I69" s="62" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N69" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="O69" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.11.2017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="101" t="s">
         <v>19</v>
       </c>
@@ -4313,7 +4200,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D70" s="59" t="s">
         <v>3</v>
@@ -4322,41 +4209,31 @@
         <v>80</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G70" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H70" s="62" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I70" s="62" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N70" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="O70" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.06.2019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="111" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B71" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="59" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D71" s="59" t="s">
         <v>3</v>
@@ -4365,41 +4242,31 @@
         <v>50</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G71" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H71" s="62" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I71" s="62" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M71" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N71" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="O71" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.06.2019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="114" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B72" s="60" t="s">
         <v>112</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D72" s="60" t="s">
         <v>3</v>
@@ -4408,33 +4275,23 @@
         <v>100</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G72" s="60" t="s">
         <v>30</v>
       </c>
       <c r="H72" s="63" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I72" s="63" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M72" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N72" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="O72" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.11.2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="104" t="s">
         <v>2</v>
       </c>
@@ -4451,7 +4308,7 @@
         <v>80</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>0</v>
@@ -4465,18 +4322,8 @@
       <c r="L73" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M73" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N73" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="O73" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.10.2019</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="105" t="s">
         <v>2</v>
       </c>
@@ -4493,7 +4340,7 @@
         <v>80</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G74" s="24" t="s">
         <v>1</v>
@@ -4504,18 +4351,8 @@
       <c r="K74" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M74" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N74" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="O74" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.11.2020</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="106" t="s">
         <v>20</v>
       </c>
@@ -4532,7 +4369,7 @@
         <v>80</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>0</v>
@@ -4543,18 +4380,8 @@
       <c r="K75" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M75" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N75" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="O75" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.06.2019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="105" t="s">
         <v>20</v>
       </c>
@@ -4571,7 +4398,7 @@
         <v>80</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G76" s="18" t="s">
         <v>1</v>
@@ -4582,18 +4409,8 @@
       <c r="K76" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M76" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N76" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="O76" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.06.2013</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="106" t="s">
         <v>21</v>
       </c>
@@ -4610,7 +4427,7 @@
         <v>80</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>0</v>
@@ -4621,18 +4438,8 @@
       <c r="K77" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N77" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="O77" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.12.2019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="105" t="s">
         <v>21</v>
       </c>
@@ -4649,7 +4456,7 @@
         <v>80</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>1</v>
@@ -4660,18 +4467,8 @@
       <c r="K78" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M78" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N78" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="O78" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.12.2020</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="106" t="s">
         <v>22</v>
       </c>
@@ -4688,7 +4485,7 @@
         <v>80</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>0</v>
@@ -4699,18 +4496,8 @@
       <c r="K79" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M79" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N79" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="O79" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.09.2019</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="105" t="s">
         <v>22</v>
       </c>
@@ -4727,7 +4514,7 @@
         <v>80</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>1</v>
@@ -4738,18 +4525,8 @@
       <c r="K80" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N80" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="O80" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.09.2019</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="106" t="s">
         <v>23</v>
       </c>
@@ -4766,7 +4543,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>0</v>
@@ -4777,18 +4554,8 @@
       <c r="K81" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N81" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="O81" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.10.2017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="105" t="s">
         <v>23</v>
       </c>
@@ -4805,7 +4572,7 @@
         <v>50</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>1</v>
@@ -4816,18 +4583,8 @@
       <c r="K82" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N82" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="O82" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.10.2020</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="106" t="s">
         <v>31</v>
       </c>
@@ -4844,7 +4601,7 @@
         <v>80</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>0</v>
@@ -4855,18 +4612,8 @@
       <c r="K83" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N83" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="O83" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.06.2019</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="105" t="s">
         <v>31</v>
       </c>
@@ -4883,7 +4630,7 @@
         <v>80</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>1</v>
@@ -4894,18 +4641,8 @@
       <c r="K84" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N84" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="O84" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.09.2015</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="104" t="s">
         <v>24</v>
       </c>
@@ -4922,7 +4659,7 @@
         <v>50</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>1</v>
@@ -4933,18 +4670,8 @@
       <c r="K85" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="M85" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N85" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="O85" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.06.2019</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="105" t="s">
         <v>24</v>
       </c>
@@ -4961,7 +4688,7 @@
         <v>80</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>0</v>
@@ -4972,18 +4699,8 @@
       <c r="K86" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N86" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="O86" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.10.2017</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="106" t="s">
         <v>25</v>
       </c>
@@ -5000,7 +4717,7 @@
         <v>80</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>1</v>
@@ -5011,18 +4728,8 @@
       <c r="K87" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M87" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N87" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="O87" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.12.2019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="105" t="s">
         <v>25</v>
       </c>
@@ -5039,7 +4746,7 @@
         <v>80</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G88" s="18" t="s">
         <v>0</v>
@@ -5050,18 +4757,8 @@
       <c r="K88" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M88" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N88" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="O88" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.10.2018</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="106" t="s">
         <v>26</v>
       </c>
@@ -5078,7 +4775,7 @@
         <v>50</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G89" s="18" t="s">
         <v>0</v>
@@ -5089,18 +4786,8 @@
       <c r="K89" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M89" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N89" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="O89" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.02.2016</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="105" t="s">
         <v>26</v>
       </c>
@@ -5117,7 +4804,7 @@
         <v>80</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>1</v>
@@ -5128,18 +4815,8 @@
       <c r="K90" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M90" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N90" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="O90" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.06.2019</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="106" t="s">
         <v>27</v>
       </c>
@@ -5156,7 +4833,7 @@
         <v>50</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>0</v>
@@ -5167,18 +4844,8 @@
       <c r="K91" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M91" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N91" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="O91" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.08.2016</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="105" t="s">
         <v>27</v>
       </c>
@@ -5195,7 +4862,7 @@
         <v>80</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>1</v>
@@ -5206,18 +4873,8 @@
       <c r="K92" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M92" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N92" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="O92" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.02.2014</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="106" t="s">
         <v>28</v>
       </c>
@@ -5234,7 +4891,7 @@
         <v>50</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>1</v>
@@ -5245,18 +4902,8 @@
       <c r="K93" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M93" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N93" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="O93" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.12.2019</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="107" t="s">
         <v>28</v>
       </c>
@@ -5273,7 +4920,7 @@
         <v>80</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G94" s="25" t="s">
         <v>0</v>
@@ -5284,18 +4931,8 @@
       <c r="K94" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="M94" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N94" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="O94" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.09.2019</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="104" t="s">
         <v>32</v>
       </c>
@@ -5312,7 +4949,7 @@
         <v>50</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>1</v>
@@ -5323,35 +4960,25 @@
       <c r="K95" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="M95" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N95" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="O95" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.12.2013</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="105" t="s">
         <v>32</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E96" s="18">
         <v>100</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>0</v>
@@ -5362,18 +4989,8 @@
       <c r="K96" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N96" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="O96" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.05.2015</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="106" t="s">
         <v>33</v>
       </c>
@@ -5390,7 +5007,7 @@
         <v>80</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>1</v>
@@ -5401,35 +5018,25 @@
       <c r="K97" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M97" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N97" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="O97" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.10.2018</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="105" t="s">
         <v>33</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E98" s="18">
         <v>100</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>0</v>
@@ -5440,18 +5047,8 @@
       <c r="K98" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M98" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N98" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="O98" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.12.2019</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="106" t="s">
         <v>34</v>
       </c>
@@ -5468,7 +5065,7 @@
         <v>80</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>1</v>
@@ -5479,35 +5076,25 @@
       <c r="K99" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M99" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N99" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="O99" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.12.2019</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="105" t="s">
         <v>34</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C100" s="91" t="s">
         <v>30</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E100" s="18">
         <v>100</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>0</v>
@@ -5518,18 +5105,8 @@
       <c r="K100" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M100" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N100" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="O100" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.05.2019</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="106" t="s">
         <v>35</v>
       </c>
@@ -5546,7 +5123,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>1</v>
@@ -5557,35 +5134,25 @@
       <c r="K101" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M101" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N101" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="O101" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.08.2018</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="105" t="s">
         <v>35</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E102" s="18">
         <v>100</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>0</v>
@@ -5596,18 +5163,8 @@
       <c r="K102" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M102" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N102" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="O102" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.02.2016</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="106" t="s">
         <v>36</v>
       </c>
@@ -5624,7 +5181,7 @@
         <v>50</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="G103" s="18" t="s">
         <v>1</v>
@@ -5635,35 +5192,25 @@
       <c r="K103" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M103" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N103" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="O103" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.08.2018</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="107" t="s">
         <v>36</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E104" s="25">
         <v>100</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="G104" s="25" t="s">
         <v>0</v>
@@ -5674,18 +5221,8 @@
       <c r="K104" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="M104" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N104" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="O104" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.11.2015</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="104" t="s">
         <v>71</v>
       </c>
@@ -5702,7 +5239,7 @@
         <v>50</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G105" s="14" t="s">
         <v>1</v>
@@ -5713,32 +5250,25 @@
       <c r="K105" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="M105" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O105" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="105" t="s">
         <v>71</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E106" s="18">
         <v>100</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G106" s="18" t="s">
         <v>0</v>
@@ -5749,15 +5279,8 @@
       <c r="K106" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M106" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O106" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="106" t="s">
         <v>72</v>
       </c>
@@ -5774,7 +5297,7 @@
         <v>80</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G107" s="18" t="s">
         <v>1</v>
@@ -5785,32 +5308,25 @@
       <c r="K107" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M107" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O107" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="105" t="s">
         <v>72</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E108" s="18">
         <v>100</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G108" s="18" t="s">
         <v>0</v>
@@ -5821,15 +5337,8 @@
       <c r="K108" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M108" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O108" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="106" t="s">
         <v>73</v>
       </c>
@@ -5846,7 +5355,7 @@
         <v>80</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G109" s="18" t="s">
         <v>1</v>
@@ -5857,32 +5366,25 @@
       <c r="K109" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M109" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O109" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="105" t="s">
         <v>73</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E110" s="18">
         <v>100</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G110" s="18" t="s">
         <v>0</v>
@@ -5893,15 +5395,8 @@
       <c r="K110" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M110" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O110" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="106" t="s">
         <v>29</v>
       </c>
@@ -5918,7 +5413,7 @@
         <v>50</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G111" s="18" t="s">
         <v>0</v>
@@ -5929,15 +5424,8 @@
       <c r="K111" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M111" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O111" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="105" t="s">
         <v>29</v>
       </c>
@@ -5954,7 +5442,7 @@
         <v>80</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G112" s="18" t="s">
         <v>1</v>
@@ -5965,15 +5453,8 @@
       <c r="K112" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M112" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O112" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="106" t="s">
         <v>74</v>
       </c>
@@ -5990,7 +5471,7 @@
         <v>80</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G113" s="18" t="s">
         <v>0</v>
@@ -6001,32 +5482,25 @@
       <c r="K113" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M113" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O113" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="107" t="s">
         <v>74</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C114" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E114" s="25">
         <v>100</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G114" s="25" t="s">
         <v>1</v>
@@ -6037,15 +5511,8 @@
       <c r="K114" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="M114" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O114" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="104" t="s">
         <v>37</v>
       </c>
@@ -6053,7 +5520,7 @@
         <v>75</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>3</v>
@@ -6062,7 +5529,7 @@
         <v>80</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G115" s="58" t="s">
         <v>0</v>
@@ -6073,15 +5540,8 @@
       <c r="K115" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="M115" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O115" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="105" t="s">
         <v>37</v>
       </c>
@@ -6089,7 +5549,7 @@
         <v>75</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>3</v>
@@ -6098,7 +5558,7 @@
         <v>80</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G116" s="59" t="s">
         <v>1</v>
@@ -6109,15 +5569,8 @@
       <c r="K116" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M116" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O116" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="106" t="s">
         <v>38</v>
       </c>
@@ -6125,7 +5578,7 @@
         <v>75</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>3</v>
@@ -6134,7 +5587,7 @@
         <v>50</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G117" s="59" t="s">
         <v>1</v>
@@ -6145,15 +5598,8 @@
       <c r="K117" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M117" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O117" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="105" t="s">
         <v>38</v>
       </c>
@@ -6161,7 +5607,7 @@
         <v>75</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>3</v>
@@ -6170,7 +5616,7 @@
         <v>80</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G118" s="64" t="s">
         <v>0</v>
@@ -6181,15 +5627,8 @@
       <c r="K118" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M118" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O118" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="106" t="s">
         <v>39</v>
       </c>
@@ -6197,7 +5636,7 @@
         <v>75</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>3</v>
@@ -6206,7 +5645,7 @@
         <v>50</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G119" s="59" t="s">
         <v>1</v>
@@ -6217,15 +5656,8 @@
       <c r="K119" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M119" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O119" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="105" t="s">
         <v>39</v>
       </c>
@@ -6233,7 +5665,7 @@
         <v>75</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>3</v>
@@ -6242,7 +5674,7 @@
         <v>80</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G120" s="64" t="s">
         <v>0</v>
@@ -6253,15 +5685,8 @@
       <c r="K120" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M120" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O120" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="106" t="s">
         <v>40</v>
       </c>
@@ -6269,7 +5694,7 @@
         <v>75</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>3</v>
@@ -6278,7 +5703,7 @@
         <v>80</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G121" s="59" t="s">
         <v>1</v>
@@ -6289,15 +5714,8 @@
       <c r="K121" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M121" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O121" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="105" t="s">
         <v>40</v>
       </c>
@@ -6305,7 +5723,7 @@
         <v>75</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>3</v>
@@ -6314,7 +5732,7 @@
         <v>50</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G122" s="64" t="s">
         <v>0</v>
@@ -6325,23 +5743,16 @@
       <c r="K122" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M122" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O122" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="108" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>3</v>
@@ -6350,7 +5761,7 @@
         <v>80</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G123" s="59" t="s">
         <v>1</v>
@@ -6361,23 +5772,16 @@
       <c r="K123" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M123" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O123" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="109" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>3</v>
@@ -6386,7 +5790,7 @@
         <v>50</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G124" s="59" t="s">
         <v>1</v>
@@ -6397,23 +5801,16 @@
       <c r="K124" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M124" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O124" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="110" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>3</v>
@@ -6422,7 +5819,7 @@
         <v>100</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G125" s="80" t="s">
         <v>0</v>
@@ -6433,15 +5830,8 @@
       <c r="K125" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="M125" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O125" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="104" t="s">
         <v>41</v>
       </c>
@@ -6449,7 +5839,7 @@
         <v>75</v>
       </c>
       <c r="C126" s="88" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>3</v>
@@ -6458,7 +5848,7 @@
         <v>80</v>
       </c>
       <c r="F126" s="89" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="G126" s="58" t="s">
         <v>0</v>
@@ -6469,15 +5859,8 @@
       <c r="K126" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="M126" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O126" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="105" t="s">
         <v>41</v>
       </c>
@@ -6485,7 +5868,7 @@
         <v>75</v>
       </c>
       <c r="C127" s="78" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>3</v>
@@ -6494,7 +5877,7 @@
         <v>80</v>
       </c>
       <c r="F127" s="77" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G127" s="59" t="s">
         <v>1</v>
@@ -6505,15 +5888,8 @@
       <c r="K127" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M127" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O127" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="106" t="s">
         <v>42</v>
       </c>
@@ -6521,7 +5897,7 @@
         <v>75</v>
       </c>
       <c r="C128" s="78" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>3</v>
@@ -6530,7 +5906,7 @@
         <v>50</v>
       </c>
       <c r="F128" s="79" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G128" s="59" t="s">
         <v>1</v>
@@ -6541,15 +5917,8 @@
       <c r="K128" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M128" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O128" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="105" t="s">
         <v>42</v>
       </c>
@@ -6557,7 +5926,7 @@
         <v>75</v>
       </c>
       <c r="C129" s="78" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>3</v>
@@ -6566,7 +5935,7 @@
         <v>80</v>
       </c>
       <c r="F129" s="77" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G129" s="64" t="s">
         <v>0</v>
@@ -6577,15 +5946,8 @@
       <c r="K129" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M129" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O129" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="106" t="s">
         <v>43</v>
       </c>
@@ -6593,7 +5955,7 @@
         <v>75</v>
       </c>
       <c r="C130" s="78" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>3</v>
@@ -6602,7 +5964,7 @@
         <v>80</v>
       </c>
       <c r="F130" s="77" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G130" s="64" t="s">
         <v>0</v>
@@ -6613,15 +5975,8 @@
       <c r="K130" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M130" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O130" s="4" t="str">
-        <f t="shared" ref="O130:O153" si="1">CONCATENATE(M130,N130)</f>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="105" t="s">
         <v>43</v>
       </c>
@@ -6629,7 +5984,7 @@
         <v>75</v>
       </c>
       <c r="C131" s="78" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>3</v>
@@ -6638,7 +5993,7 @@
         <v>80</v>
       </c>
       <c r="F131" s="77" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G131" s="59" t="s">
         <v>1</v>
@@ -6649,15 +6004,8 @@
       <c r="K131" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M131" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O131" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="106" t="s">
         <v>44</v>
       </c>
@@ -6665,7 +6013,7 @@
         <v>75</v>
       </c>
       <c r="C132" s="78" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>3</v>
@@ -6674,7 +6022,7 @@
         <v>80</v>
       </c>
       <c r="F132" s="77" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G132" s="64" t="s">
         <v>0</v>
@@ -6685,15 +6033,8 @@
       <c r="K132" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M132" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O132" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="105" t="s">
         <v>44</v>
       </c>
@@ -6701,7 +6042,7 @@
         <v>75</v>
       </c>
       <c r="C133" s="78" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>3</v>
@@ -6710,7 +6051,7 @@
         <v>50</v>
       </c>
       <c r="F133" s="79" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G133" s="59" t="s">
         <v>1</v>
@@ -6721,15 +6062,8 @@
       <c r="K133" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M133" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O133" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="106" t="s">
         <v>45</v>
       </c>
@@ -6737,7 +6071,7 @@
         <v>75</v>
       </c>
       <c r="C134" s="78" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>3</v>
@@ -6746,7 +6080,7 @@
         <v>45</v>
       </c>
       <c r="F134" s="79" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G134" s="64" t="s">
         <v>0</v>
@@ -6757,15 +6091,8 @@
       <c r="K134" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M134" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O134" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="105" t="s">
         <v>45</v>
       </c>
@@ -6773,7 +6100,7 @@
         <v>75</v>
       </c>
       <c r="C135" s="78" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>3</v>
@@ -6782,7 +6109,7 @@
         <v>50</v>
       </c>
       <c r="F135" s="79" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G135" s="59" t="s">
         <v>1</v>
@@ -6793,15 +6120,8 @@
       <c r="K135" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M135" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O135" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="106" t="s">
         <v>46</v>
       </c>
@@ -6809,7 +6129,7 @@
         <v>75</v>
       </c>
       <c r="C136" s="78" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>3</v>
@@ -6818,7 +6138,7 @@
         <v>80</v>
       </c>
       <c r="F136" s="77" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G136" s="64" t="s">
         <v>0</v>
@@ -6829,15 +6149,8 @@
       <c r="K136" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M136" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O136" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="105" t="s">
         <v>46</v>
       </c>
@@ -6845,7 +6158,7 @@
         <v>75</v>
       </c>
       <c r="C137" s="78" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>3</v>
@@ -6854,7 +6167,7 @@
         <v>80</v>
       </c>
       <c r="F137" s="77" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G137" s="59" t="s">
         <v>1</v>
@@ -6865,15 +6178,8 @@
       <c r="K137" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M137" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O137" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="106" t="s">
         <v>47</v>
       </c>
@@ -6881,7 +6187,7 @@
         <v>75</v>
       </c>
       <c r="C138" s="78" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>3</v>
@@ -6890,7 +6196,7 @@
         <v>80</v>
       </c>
       <c r="F138" s="77" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G138" s="64" t="s">
         <v>0</v>
@@ -6901,15 +6207,8 @@
       <c r="K138" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M138" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O138" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="107" t="s">
         <v>47</v>
       </c>
@@ -6917,7 +6216,7 @@
         <v>75</v>
       </c>
       <c r="C139" s="90" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>3</v>
@@ -6926,7 +6225,7 @@
         <v>80</v>
       </c>
       <c r="F139" s="82" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G139" s="60" t="s">
         <v>1</v>
@@ -6937,15 +6236,8 @@
       <c r="K139" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="M139" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O139" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="104" t="s">
         <v>48</v>
       </c>
@@ -6953,7 +6245,7 @@
         <v>75</v>
       </c>
       <c r="C140" s="81" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>3</v>
@@ -6962,7 +6254,7 @@
         <v>80</v>
       </c>
       <c r="F140" s="81" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G140" s="58" t="s">
         <v>0</v>
@@ -6973,15 +6265,8 @@
       <c r="K140" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="M140" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O140" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="105" t="s">
         <v>48</v>
       </c>
@@ -6989,16 +6274,16 @@
         <v>75</v>
       </c>
       <c r="C141" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="77">
+        <v>80</v>
+      </c>
+      <c r="F141" s="77" t="s">
         <v>218</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E141" s="77">
-        <v>80</v>
-      </c>
-      <c r="F141" s="77" t="s">
-        <v>238</v>
       </c>
       <c r="G141" s="59" t="s">
         <v>1</v>
@@ -7009,15 +6294,8 @@
       <c r="K141" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M141" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O141" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="106" t="s">
         <v>49</v>
       </c>
@@ -7025,7 +6303,7 @@
         <v>75</v>
       </c>
       <c r="C142" s="77" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>3</v>
@@ -7034,7 +6312,7 @@
         <v>80</v>
       </c>
       <c r="F142" s="77" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G142" s="64" t="s">
         <v>0</v>
@@ -7045,15 +6323,8 @@
       <c r="K142" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M142" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O142" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="105" t="s">
         <v>49</v>
       </c>
@@ -7061,7 +6332,7 @@
         <v>75</v>
       </c>
       <c r="C143" s="77" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>3</v>
@@ -7070,7 +6341,7 @@
         <v>80</v>
       </c>
       <c r="F143" s="77" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G143" s="59" t="s">
         <v>1</v>
@@ -7081,15 +6352,8 @@
       <c r="K143" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M143" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O143" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="106" t="s">
         <v>50</v>
       </c>
@@ -7097,7 +6361,7 @@
         <v>75</v>
       </c>
       <c r="C144" s="77" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>3</v>
@@ -7106,7 +6370,7 @@
         <v>80</v>
       </c>
       <c r="F144" s="77" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G144" s="64" t="s">
         <v>0</v>
@@ -7117,15 +6381,8 @@
       <c r="K144" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M144" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O144" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="105" t="s">
         <v>50</v>
       </c>
@@ -7133,7 +6390,7 @@
         <v>75</v>
       </c>
       <c r="C145" s="77" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>3</v>
@@ -7142,7 +6399,7 @@
         <v>80</v>
       </c>
       <c r="F145" s="77" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G145" s="59" t="s">
         <v>1</v>
@@ -7153,15 +6410,8 @@
       <c r="K145" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M145" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O145" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="106" t="s">
         <v>52</v>
       </c>
@@ -7169,7 +6419,7 @@
         <v>75</v>
       </c>
       <c r="C146" s="77" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>3</v>
@@ -7178,7 +6428,7 @@
         <v>80</v>
       </c>
       <c r="F146" s="77" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G146" s="59" t="s">
         <v>1</v>
@@ -7189,15 +6439,8 @@
       <c r="K146" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M146" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O146" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="105" t="s">
         <v>52</v>
       </c>
@@ -7205,7 +6448,7 @@
         <v>75</v>
       </c>
       <c r="C147" s="77" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>3</v>
@@ -7214,7 +6457,7 @@
         <v>80</v>
       </c>
       <c r="F147" s="77" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G147" s="64" t="s">
         <v>0</v>
@@ -7225,15 +6468,8 @@
       <c r="K147" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M147" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O147" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="106" t="s">
         <v>53</v>
       </c>
@@ -7241,7 +6477,7 @@
         <v>75</v>
       </c>
       <c r="C148" s="77" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>3</v>
@@ -7250,7 +6486,7 @@
         <v>80</v>
       </c>
       <c r="F148" s="77" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G148" s="59" t="s">
         <v>1</v>
@@ -7261,15 +6497,8 @@
       <c r="K148" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M148" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O148" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="105" t="s">
         <v>53</v>
       </c>
@@ -7277,7 +6506,7 @@
         <v>75</v>
       </c>
       <c r="C149" s="77" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>3</v>
@@ -7286,7 +6515,7 @@
         <v>80</v>
       </c>
       <c r="F149" s="77" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G149" s="64" t="s">
         <v>0</v>
@@ -7297,15 +6526,8 @@
       <c r="K149" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M149" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O149" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="106" t="s">
         <v>54</v>
       </c>
@@ -7313,7 +6535,7 @@
         <v>75</v>
       </c>
       <c r="C150" s="77" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>3</v>
@@ -7322,7 +6544,7 @@
         <v>80</v>
       </c>
       <c r="F150" s="77" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G150" s="64" t="s">
         <v>0</v>
@@ -7333,15 +6555,8 @@
       <c r="K150" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M150" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O150" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="105" t="s">
         <v>54</v>
       </c>
@@ -7349,7 +6564,7 @@
         <v>75</v>
       </c>
       <c r="C151" s="77" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>3</v>
@@ -7358,7 +6573,7 @@
         <v>50</v>
       </c>
       <c r="F151" s="79" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G151" s="59" t="s">
         <v>1</v>
@@ -7369,15 +6584,8 @@
       <c r="K151" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M151" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O151" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="106" t="s">
         <v>51</v>
       </c>
@@ -7385,7 +6593,7 @@
         <v>75</v>
       </c>
       <c r="C152" s="77" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>3</v>
@@ -7394,7 +6602,7 @@
         <v>80</v>
       </c>
       <c r="F152" s="77" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G152" s="59" t="s">
         <v>1</v>
@@ -7405,15 +6613,8 @@
       <c r="K152" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="M152" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O152" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="107" t="s">
         <v>51</v>
       </c>
@@ -7421,7 +6622,7 @@
         <v>75</v>
       </c>
       <c r="C153" s="82" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>3</v>
@@ -7430,7 +6631,7 @@
         <v>80</v>
       </c>
       <c r="F153" s="83" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G153" s="80" t="s">
         <v>0</v>
@@ -7441,15 +6642,8 @@
       <c r="K153" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="M153" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O153" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>01.</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="34"/>
       <c r="B154" s="33"/>
       <c r="C154" s="34"/>
@@ -7465,7 +6659,7 @@
       <c r="M154" s="26"/>
       <c r="N154" s="26"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="34"/>
       <c r="B155" s="33"/>
       <c r="C155" s="34"/>
@@ -7481,7 +6675,7 @@
       <c r="M155" s="26"/>
       <c r="N155" s="26"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="34"/>
       <c r="B156" s="33"/>
       <c r="C156" s="34"/>
@@ -7497,7 +6691,7 @@
       <c r="M156" s="26"/>
       <c r="N156" s="26"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="34"/>
       <c r="B157" s="33"/>
       <c r="C157" s="34"/>
@@ -7513,7 +6707,7 @@
       <c r="M157" s="26"/>
       <c r="N157" s="26"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="34"/>
       <c r="B158" s="33"/>
       <c r="C158" s="34"/>
@@ -7529,7 +6723,7 @@
       <c r="M158" s="26"/>
       <c r="N158" s="26"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="34"/>
       <c r="B159" s="33"/>
       <c r="C159" s="34"/>
@@ -7545,7 +6739,7 @@
       <c r="M159" s="26"/>
       <c r="N159" s="26"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="34"/>
       <c r="B160" s="33"/>
       <c r="C160" s="34"/>
